--- a/biology/Médecine/Hôpital_d'Hyvinkää/Hôpital_d'Hyvinkää.xlsx
+++ b/biology/Médecine/Hôpital_d'Hyvinkää/Hôpital_d'Hyvinkää.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>H%C3%B4pital_d%27Hyvink%C3%A4%C3%A4</t>
+          <t>Hôpital_d'Hyvinkää</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-L'hôpital d'Hyvinkää (finnois : Hyvinkään sairaala) est un hôpital du HUS situé à Hyvinkää en Finlande[1].
+L'hôpital d'Hyvinkää (finnois : Hyvinkään sairaala) est un hôpital du HUS situé à Hyvinkää en Finlande.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>H%C3%B4pital_d%27Hyvink%C3%A4%C3%A4</t>
+          <t>Hôpital_d'Hyvinkää</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Présentation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'hôpital d'Hyvinkää  fait partie du centre hospitalier universitaire d'Helsinki (HUCH).
 La zone hospitalière de Hyvinkää dessert une population d'environ 190 000 habitants et comprend cinq municipalités: Hyvinkää, Järvenpää, Mäntsälä, Nurmijärvi et Tuusula.
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>H%C3%B4pital_d%27Hyvink%C3%A4%C3%A4</t>
+          <t>Hôpital_d'Hyvinkää</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,7 +558,9 @@
           <t>Spécialités</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Les services HUS de l'hôpital:
 Département des maladies infectieuses et pulmonaires
